--- a/data/Inside Airbnb Data Dictionary.xlsx
+++ b/data/Inside Airbnb Data Dictionary.xlsx
@@ -1,18 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bavop\Documents\Bavo\UGent\UGent 2021-2022\Machinaal Leren\Project\ProjectML\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28075F4-D247-4793-83DC-E72362461FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="listings.csv detail v4" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="reviews.csv v1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="listings.csv detail v4" sheetId="1" r:id="rId1"/>
+    <sheet name="reviews.csv v1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -23,217 +37,217 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="189">
   <si>
-    <t xml:space="preserve">Data Dictionary for listings.csv detailed file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listings.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Introduced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airbnb's unique identifier for the listing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listing_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scrape_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bigint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inside Airbnb "Scrape" this was part of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_scraped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTC. The date and time this listing was "scraped".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the listing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detailed description of the listing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighborhood_overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Host's description of the neighbourhood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">picture_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL to the Airbnb hosted regular sized image for the listing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airbnb's unique identifier for the host/user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Airbnb page for the host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the host. Usually just the first name(s).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_since</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The date the host/user was created. For hosts that are Airbnb guests this could be the date they registered as a guest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The host's self reported location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_about</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description about the host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_response_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_response_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_acceptance_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That rate at which a host accepts booking requests.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_is_superhost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean [t=true; f=false]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_thumbnail_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_picture_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_neighbourhood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_listings_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of listings the host has (per Airbnb calculations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_total_listings_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_verifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_has_profile_pic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host_identity_verified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbourhood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbourhood_cleansed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The neighbourhood as geocoded using the latitude and longitude against neighborhoods as defined by open or public digital shapefiles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighbourhood_group_cleansed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The neighbourhood group as geocoded using the latitude and longitude against neighborhoods as defined by open or public digital shapefiles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numeric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uses the World Geodetic System (WGS84) projection for latitude and longitude.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">property_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self selected property type. Hotels and Bed and Breakfasts are described as such by their hosts in this field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">room_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Entire home/apt|Private room|Shared room|Hotel]
+    <t>Data Dictionary for listings.csv detailed file</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>listings.csv</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Date Introduced</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Airbnb's unique identifier for the listing</t>
+  </si>
+  <si>
+    <t>listing_url</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>scrape_id</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>Inside Airbnb "Scrape" this was part of</t>
+  </si>
+  <si>
+    <t>last_scraped</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>UTC. The date and time this listing was "scraped".</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Name of the listing</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Detailed description of the listing</t>
+  </si>
+  <si>
+    <t>neighborhood_overview</t>
+  </si>
+  <si>
+    <t>Host's description of the neighbourhood</t>
+  </si>
+  <si>
+    <t>picture_url</t>
+  </si>
+  <si>
+    <t>URL to the Airbnb hosted regular sized image for the listing</t>
+  </si>
+  <si>
+    <t>host_id</t>
+  </si>
+  <si>
+    <t>Airbnb's unique identifier for the host/user</t>
+  </si>
+  <si>
+    <t>host_url</t>
+  </si>
+  <si>
+    <t>The Airbnb page for the host</t>
+  </si>
+  <si>
+    <t>host_name</t>
+  </si>
+  <si>
+    <t>Name of the host. Usually just the first name(s).</t>
+  </si>
+  <si>
+    <t>host_since</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>The date the host/user was created. For hosts that are Airbnb guests this could be the date they registered as a guest.</t>
+  </si>
+  <si>
+    <t>host_location</t>
+  </si>
+  <si>
+    <t>The host's self reported location</t>
+  </si>
+  <si>
+    <t>host_about</t>
+  </si>
+  <si>
+    <t>Description about the host</t>
+  </si>
+  <si>
+    <t>host_response_time</t>
+  </si>
+  <si>
+    <t>host_response_rate</t>
+  </si>
+  <si>
+    <t>host_acceptance_rate</t>
+  </si>
+  <si>
+    <t>That rate at which a host accepts booking requests.</t>
+  </si>
+  <si>
+    <t>host_is_superhost</t>
+  </si>
+  <si>
+    <t>boolean [t=true; f=false]</t>
+  </si>
+  <si>
+    <t>host_thumbnail_url</t>
+  </si>
+  <si>
+    <t>host_picture_url</t>
+  </si>
+  <si>
+    <t>host_neighbourhood</t>
+  </si>
+  <si>
+    <t>host_listings_count</t>
+  </si>
+  <si>
+    <t>The number of listings the host has (per Airbnb calculations)</t>
+  </si>
+  <si>
+    <t>host_total_listings_count</t>
+  </si>
+  <si>
+    <t>host_verifications</t>
+  </si>
+  <si>
+    <t>host_has_profile_pic</t>
+  </si>
+  <si>
+    <t>host_identity_verified</t>
+  </si>
+  <si>
+    <t>neighbourhood</t>
+  </si>
+  <si>
+    <t>neighbourhood_cleansed</t>
+  </si>
+  <si>
+    <t>The neighbourhood as geocoded using the latitude and longitude against neighborhoods as defined by open or public digital shapefiles.</t>
+  </si>
+  <si>
+    <t>neighbourhood_group_cleansed</t>
+  </si>
+  <si>
+    <t>The neighbourhood group as geocoded using the latitude and longitude against neighborhoods as defined by open or public digital shapefiles.</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Uses the World Geodetic System (WGS84) projection for latitude and longitude.</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>property_type</t>
+  </si>
+  <si>
+    <t>Self selected property type. Hotels and Bed and Breakfasts are described as such by their hosts in this field</t>
+  </si>
+  <si>
+    <t>room_type</t>
+  </si>
+  <si>
+    <t>[Entire home/apt|Private room|Shared room|Hotel]
 All homes are grouped into the following three room types:
 Entire place
 Private room
@@ -246,448 +260,424 @@
 Shared rooms are for when you don't mind sharing a space with others. When you book a shared room, you'll be sleeping in a space that is shared with others and share the entire space with other people. Shared rooms are popular among flexible travelers looking for new friends and budget-friendly stays.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.airbnb.com/help/article/5/what-does-the-room-type-of-a-listing-mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accommodates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum capacity of the listing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bathrooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of bathrooms in the listing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bathrooms_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of bathrooms in the listing. 
+    <t>https://www.airbnb.com/help/article/5/what-does-the-room-type-of-a-listing-mean</t>
+  </si>
+  <si>
+    <t>accommodates</t>
+  </si>
+  <si>
+    <t>The maximum capacity of the listing</t>
+  </si>
+  <si>
+    <t>bathrooms</t>
+  </si>
+  <si>
+    <t>The number of bathrooms in the listing</t>
+  </si>
+  <si>
+    <t>bathrooms_text</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>The number of bathrooms in the listing. 
 On the Airbnb web-site, the bathrooms field has evolved from a number to a textual description. For older scrapes, bathrooms is used.</t>
   </si>
   <si>
-    <t xml:space="preserve">bedrooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of bedrooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of bed(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amenities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daily price in local currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum_nights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum number of night stay for the listing (calendar rules may be different)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum_nights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum number of night stay for the listing (calendar rules may be different)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum_minimum_nights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the smallest minimum_night value from the calender (looking 365 nights in the future)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum_minimum_nights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the largest minimum_night value from the calender (looking 365 nights in the future)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum_maximum_nights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the smallest maximum_night value from the calender (looking 365 nights in the future)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum_maximum_nights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the largest maximum_night value from the calender (looking 365 nights in the future)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum_nights_avg_ntm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the average minimum_night value from the calender (looking 365 nights in the future)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum_nights_avg_ntm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the average maximum_night value from the calender (looking 365 nights in the future)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has_availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[t=true; f=false]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">availability_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avaliability_x. The availability of the listing x days in the future as determined by the calendar. Note a listing may not be available because it has been booked by a guest or blocked by the host.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">availability_60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">availability_90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">availability_365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calendar_last_scraped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_of_reviews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of reviews the listing has</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_of_reviews_ltm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of reviews the listing has (in the last 12 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_of_reviews_l30d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of reviews the listing has (in the last 30 days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first_review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The date of the first/oldest review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The date of the last/newest review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review_scores_rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review_scores_accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review_scores_cleanliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review_scores_checkin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review_scores_communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review_scores_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review_scores_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The licence/permit/registration number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant_bookable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[t=true; f=false]. Whether the guest can automatically book the listing without the host requiring to accept their booking request. An indicator of a commercial listing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculated_host_listings_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of listings the host has in the current scrape, in the city/region geography.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculated_host_listings_count_entire_homes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of Entire home/apt listings the host has in the current scrape, in the city/region geography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculated_host_listings_count_private_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of Private room listings the host has in the current scrape, in the city/region geography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculated_host_listings_count_shared_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of Shared room listings the host has in the current scrape, in the city/region geography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reviews_per_month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of reviews the listing has over the lifetime of the listing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experiences_offered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">access</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">house_rules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thumbnail_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xl_picture_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zipcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smart_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_location_exact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square_feet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weekly_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthly_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">security_deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cleaning_fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guests_included</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extra_people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requires_license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jurisdiction_names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_business_travel_ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancellation_policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">require_guest_profile_picture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">require_guest_phone_verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Dictionary for reviews.csv data file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reviews.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listing_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reviewer_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reviewer_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
+    <t>bedrooms</t>
+  </si>
+  <si>
+    <t>The number of bedrooms</t>
+  </si>
+  <si>
+    <t>beds</t>
+  </si>
+  <si>
+    <t>The number of bed(s)</t>
+  </si>
+  <si>
+    <t>amenities</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>daily price in local currency</t>
+  </si>
+  <si>
+    <t>minimum_nights</t>
+  </si>
+  <si>
+    <t>minimum number of night stay for the listing (calendar rules may be different)</t>
+  </si>
+  <si>
+    <t>maximum_nights</t>
+  </si>
+  <si>
+    <t>maximum number of night stay for the listing (calendar rules may be different)</t>
+  </si>
+  <si>
+    <t>minimum_minimum_nights</t>
+  </si>
+  <si>
+    <t>the smallest minimum_night value from the calender (looking 365 nights in the future)</t>
+  </si>
+  <si>
+    <t>maximum_minimum_nights</t>
+  </si>
+  <si>
+    <t>the largest minimum_night value from the calender (looking 365 nights in the future)</t>
+  </si>
+  <si>
+    <t>minimum_maximum_nights</t>
+  </si>
+  <si>
+    <t>the smallest maximum_night value from the calender (looking 365 nights in the future)</t>
+  </si>
+  <si>
+    <t>maximum_maximum_nights</t>
+  </si>
+  <si>
+    <t>the largest maximum_night value from the calender (looking 365 nights in the future)</t>
+  </si>
+  <si>
+    <t>minimum_nights_avg_ntm</t>
+  </si>
+  <si>
+    <t>the average minimum_night value from the calender (looking 365 nights in the future)</t>
+  </si>
+  <si>
+    <t>maximum_nights_avg_ntm</t>
+  </si>
+  <si>
+    <t>the average maximum_night value from the calender (looking 365 nights in the future)</t>
+  </si>
+  <si>
+    <t>calendar_updated</t>
+  </si>
+  <si>
+    <t>has_availability</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>[t=true; f=false]</t>
+  </si>
+  <si>
+    <t>availability_30</t>
+  </si>
+  <si>
+    <t>avaliability_x. The availability of the listing x days in the future as determined by the calendar. Note a listing may not be available because it has been booked by a guest or blocked by the host.</t>
+  </si>
+  <si>
+    <t>availability_60</t>
+  </si>
+  <si>
+    <t>availability_90</t>
+  </si>
+  <si>
+    <t>availability_365</t>
+  </si>
+  <si>
+    <t>calendar_last_scraped</t>
+  </si>
+  <si>
+    <t>number_of_reviews</t>
+  </si>
+  <si>
+    <t>The number of reviews the listing has</t>
+  </si>
+  <si>
+    <t>number_of_reviews_ltm</t>
+  </si>
+  <si>
+    <t>The number of reviews the listing has (in the last 12 months)</t>
+  </si>
+  <si>
+    <t>number_of_reviews_l30d</t>
+  </si>
+  <si>
+    <t>The number of reviews the listing has (in the last 30 days)</t>
+  </si>
+  <si>
+    <t>first_review</t>
+  </si>
+  <si>
+    <t>The date of the first/oldest review</t>
+  </si>
+  <si>
+    <t>last_review</t>
+  </si>
+  <si>
+    <t>The date of the last/newest review</t>
+  </si>
+  <si>
+    <t>review_scores_rating</t>
+  </si>
+  <si>
+    <t>review_scores_accuracy</t>
+  </si>
+  <si>
+    <t>review_scores_cleanliness</t>
+  </si>
+  <si>
+    <t>review_scores_checkin</t>
+  </si>
+  <si>
+    <t>review_scores_communication</t>
+  </si>
+  <si>
+    <t>review_scores_location</t>
+  </si>
+  <si>
+    <t>review_scores_value</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>The licence/permit/registration number</t>
+  </si>
+  <si>
+    <t>instant_bookable</t>
+  </si>
+  <si>
+    <t>[t=true; f=false]. Whether the guest can automatically book the listing without the host requiring to accept their booking request. An indicator of a commercial listing.</t>
+  </si>
+  <si>
+    <t>calculated_host_listings_count</t>
+  </si>
+  <si>
+    <t>The number of listings the host has in the current scrape, in the city/region geography.</t>
+  </si>
+  <si>
+    <t>calculated_host_listings_count_entire_homes</t>
+  </si>
+  <si>
+    <t>The number of Entire home/apt listings the host has in the current scrape, in the city/region geography</t>
+  </si>
+  <si>
+    <t>calculated_host_listings_count_private_rooms</t>
+  </si>
+  <si>
+    <t>The number of Private room listings the host has in the current scrape, in the city/region geography</t>
+  </si>
+  <si>
+    <t>calculated_host_listings_count_shared_rooms</t>
+  </si>
+  <si>
+    <t>The number of Shared room listings the host has in the current scrape, in the city/region geography</t>
+  </si>
+  <si>
+    <t>reviews_per_month</t>
+  </si>
+  <si>
+    <t>The number of reviews the listing has over the lifetime of the listing</t>
+  </si>
+  <si>
+    <t>Change control</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>experiences_offered</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>house_rules</t>
+  </si>
+  <si>
+    <t>thumbnail_url</t>
+  </si>
+  <si>
+    <t>medium_url</t>
+  </si>
+  <si>
+    <t>xl_picture_url</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>smart_location</t>
+  </si>
+  <si>
+    <t>country_code</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>is_location_exact</t>
+  </si>
+  <si>
+    <t>bed_type</t>
+  </si>
+  <si>
+    <t>square_feet</t>
+  </si>
+  <si>
+    <t>weekly_price</t>
+  </si>
+  <si>
+    <t>monthly_price</t>
+  </si>
+  <si>
+    <t>security_deposit</t>
+  </si>
+  <si>
+    <t>cleaning_fee</t>
+  </si>
+  <si>
+    <t>guests_included</t>
+  </si>
+  <si>
+    <t>extra_people</t>
+  </si>
+  <si>
+    <t>requires_license</t>
+  </si>
+  <si>
+    <t>jurisdiction_names</t>
+  </si>
+  <si>
+    <t>is_business_travel_ready</t>
+  </si>
+  <si>
+    <t>cancellation_policy</t>
+  </si>
+  <si>
+    <t>require_guest_profile_picture</t>
+  </si>
+  <si>
+    <t>require_guest_phone_verification</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>Data Dictionary for reviews.csv data file</t>
+  </si>
+  <si>
+    <t>reviews.csv</t>
+  </si>
+  <si>
+    <t>listing_id</t>
+  </si>
+  <si>
+    <t>reviewer_id</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MMMM&quot;, &quot;YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmmm&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,9 +702,15 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -722,101 +718,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -875,83 +822,390 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="43.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="5" width="43.6640625" customWidth="1"/>
+    <col min="6" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6">
         <v>44044</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -968,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -981,7 +1235,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -994,7 +1248,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1263,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -1024,7 +1278,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1291,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1050,7 +1304,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -1063,7 +1317,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
@@ -1076,7 +1330,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -1089,7 +1343,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>32</v>
       </c>
@@ -1104,7 +1358,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>34</v>
       </c>
@@ -1117,8 +1371,8 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1130,8 +1384,8 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1143,7 +1397,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>41</v>
       </c>
@@ -1156,7 +1410,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
@@ -1165,7 +1419,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>44</v>
       </c>
@@ -1174,7 +1428,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
@@ -1185,8 +1439,8 @@
       </c>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1196,7 +1450,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>49</v>
       </c>
@@ -1207,7 +1461,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>50</v>
       </c>
@@ -1218,7 +1472,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>51</v>
       </c>
@@ -1229,8 +1483,8 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1242,7 +1496,7 @@
       </c>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>54</v>
       </c>
@@ -1255,7 +1509,7 @@
       </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>55</v>
       </c>
@@ -1264,8 +1518,8 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1275,8 +1529,8 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1286,7 +1540,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>58</v>
       </c>
@@ -1297,7 +1551,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>59</v>
       </c>
@@ -1312,7 +1566,7 @@
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>61</v>
       </c>
@@ -1327,8 +1581,8 @@
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -1340,8 +1594,8 @@
       </c>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1353,7 +1607,7 @@
       </c>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>67</v>
       </c>
@@ -1366,8 +1620,8 @@
       </c>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -1381,8 +1635,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -1394,8 +1648,8 @@
       </c>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -1407,7 +1661,7 @@
       </c>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>76</v>
       </c>
@@ -1420,8 +1674,8 @@
       </c>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -1433,8 +1687,8 @@
       </c>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -1446,7 +1700,7 @@
       </c>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>83</v>
       </c>
@@ -1457,8 +1711,8 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -1470,7 +1724,7 @@
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>88</v>
       </c>
@@ -1483,7 +1737,7 @@
       </c>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>90</v>
       </c>
@@ -1496,7 +1750,7 @@
       </c>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>92</v>
       </c>
@@ -1511,7 +1765,7 @@
       </c>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>94</v>
       </c>
@@ -1526,7 +1780,7 @@
       </c>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>96</v>
       </c>
@@ -1541,7 +1795,7 @@
       </c>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>98</v>
       </c>
@@ -1556,7 +1810,7 @@
       </c>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>100</v>
       </c>
@@ -1571,7 +1825,7 @@
       </c>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>102</v>
       </c>
@@ -1586,7 +1840,7 @@
       </c>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>104</v>
       </c>
@@ -1597,7 +1851,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>105</v>
       </c>
@@ -1610,8 +1864,8 @@
       </c>
       <c r="E58" s="9"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>108</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -1625,8 +1879,8 @@
       </c>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -1640,8 +1894,8 @@
       </c>
       <c r="E60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -1655,8 +1909,8 @@
       </c>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -1670,7 +1924,7 @@
       </c>
       <c r="E62" s="9"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>113</v>
       </c>
@@ -1681,8 +1935,8 @@
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -1694,8 +1948,8 @@
       </c>
       <c r="E64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -1709,8 +1963,8 @@
       </c>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -1724,7 +1978,7 @@
       </c>
       <c r="E66" s="9"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>120</v>
       </c>
@@ -1739,7 +1993,7 @@
       </c>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>122</v>
       </c>
@@ -1754,8 +2008,8 @@
       </c>
       <c r="E68" s="9"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B69" s="8"/>
@@ -1763,8 +2017,8 @@
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B70" s="8"/>
@@ -1772,8 +2026,8 @@
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B71" s="8"/>
@@ -1781,8 +2035,8 @@
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B72" s="8"/>
@@ -1790,8 +2044,8 @@
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B73" s="8"/>
@@ -1799,8 +2053,8 @@
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B74" s="8"/>
@@ -1808,8 +2062,8 @@
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B75" s="8"/>
@@ -1817,7 +2071,7 @@
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>131</v>
       </c>
@@ -1830,8 +2084,8 @@
       </c>
       <c r="E76" s="9"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
         <v>133</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -1843,7 +2097,7 @@
       </c>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>135</v>
       </c>
@@ -1858,7 +2112,7 @@
       </c>
       <c r="E78" s="9"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>137</v>
       </c>
@@ -1873,7 +2127,7 @@
       </c>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>139</v>
       </c>
@@ -1888,7 +2142,7 @@
       </c>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>141</v>
       </c>
@@ -1903,7 +2157,7 @@
       </c>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>143</v>
       </c>
@@ -1918,12 +2172,12 @@
       </c>
       <c r="E82" s="9"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>6</v>
       </c>
@@ -1931,379 +2185,369 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E41" r:id="rId1" display="https://www.airbnb.com/help/article/5/what-does-the-room-type-of-a-listing-mean"/>
+    <hyperlink ref="E41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col min="1" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2320,43 +2564,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>6</v>
       </c>
@@ -2368,12 +2612,7 @@
   <mergeCells count="1">
     <mergeCell ref="B6:E6"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/Inside Airbnb Data Dictionary.xlsx
+++ b/data/Inside Airbnb Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bavop\Documents\Bavo\UGent\UGent 2021-2022\Machinaal Leren\Project\ProjectML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28075F4-D247-4793-83DC-E72362461FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B90FE3-73AF-425F-BD69-B890F56AA010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listings.csv detail v4" sheetId="1" r:id="rId1"/>
@@ -723,9 +723,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -757,6 +754,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1144,1336 +1144,1336 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="5" width="43.6640625" customWidth="1"/>
-    <col min="6" max="1025" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>44044</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="9" t="s">
+      <c r="C64" s="7"/>
+      <c r="D64" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E66" s="9"/>
-    </row>
-    <row r="67" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E68" s="9"/>
-    </row>
-    <row r="69" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-    </row>
-    <row r="70" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-    </row>
-    <row r="71" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-    </row>
-    <row r="74" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-    </row>
-    <row r="76" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="9" t="s">
+      <c r="C76" s="7"/>
+      <c r="D76" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E76" s="9"/>
-    </row>
-    <row r="77" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="9" t="s">
+      <c r="C77" s="7"/>
+      <c r="D77" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E77" s="9"/>
-    </row>
-    <row r="78" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E78" s="9"/>
-    </row>
-    <row r="79" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E79" s="9"/>
-    </row>
-    <row r="80" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E80" s="9"/>
-    </row>
-    <row r="81" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E81" s="9"/>
-    </row>
-    <row r="82" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E82" s="9"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
+      <c r="E82" s="8"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+    <row r="86" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="B86" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="B87" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="B88" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="B89" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="B90" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="B91" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="B92" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+      <c r="B93" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+      <c r="B94" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="B95" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="B96" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="B97" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="B98" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="B99" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="B100" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="B101" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="B102" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="B103" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="B104" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="B105" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="B106" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
+      <c r="B107" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="B108" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
+      <c r="B109" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
+      <c r="B110" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="B111" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="B112" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+      <c r="B113" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
+      <c r="B114" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
+      <c r="B115" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
+      <c r="B116" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
+      <c r="B117" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
+      <c r="B118" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
+      <c r="B119" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
+    <row r="121" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="1048576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:E6"/>
@@ -2490,121 +2490,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>146</v>
       </c>
     </row>
